--- a/biology/Zoologie/Dipsosaurus_dorsalis/Dipsosaurus_dorsalis.xlsx
+++ b/biology/Zoologie/Dipsosaurus_dorsalis/Dipsosaurus_dorsalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsosaurus dorsalis, l'Iguane du désert, unique représentant du genre Dipsosaurus, est une espèce de sauriens de la famille des Iguanidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsosaurus dorsalis, l'Iguane du désert, unique représentant du genre Dipsosaurus, est une espèce de sauriens de la famille des Iguanidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Californie, au Nevada, en Arizona et en Utah et au Mexique en Basse-Californie, en Basse-Californie du Sud, au Sonora et au Sinaloa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Californie, au Nevada, en Arizona et en Utah et au Mexique en Basse-Californie, en Basse-Californie du Sud, au Sonora et au Sinaloa.
 C'est l'un des lézards les plus communs des déserts de Sonora et des Mojaves. On le rencontre également dans certaines îles du Golfe de Californie.
 </t>
         </is>
@@ -543,14 +557,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (3 décembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (3 décembre 2012) :
 Dipsosaurus dorsalis catalinensis Van Denburgh, 1922
 Dipsosaurus dorsalis dorsalis (Baird &amp; Girard, 1852)
 Dipsosaurus dorsalis lucasensis Van Denburgh, 1920
 Dipsosaurus dorsalis sonoriensis Allen, 1933
-Le statut de la sous-espèce Dipsosaurus dorsalis catalinensis est discuté, Larry Lee Grismer en 1999[3] considère que certains caractères acquis en font une espèce à part entière.
+Le statut de la sous-espèce Dipsosaurus dorsalis catalinensis est discuté, Larry Lee Grismer en 1999 considère que certains caractères acquis en font une espèce à part entière.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Allen, 1933 : Report on a collection of amphibians and reptiles from Sonora, Mexico, with the description of a new lizard. Occasional Papers of the Museum of Zoology University of Michigan Ann Arbor, n. 259, p. 1-15 (texte intégral).
 Baird &amp; Girard, 1852 : Characteristics of some new reptiles in the Museum of the Smithsonian Institution, part 2. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 125-129 (texte intégral).
